--- a/public/my_data.xlsx
+++ b/public/my_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="2980" yWindow="1060" windowWidth="18260" windowHeight="10580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,13 +84,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,10 +137,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,564 +493,579 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="K1" sqref="K1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="B2" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="10">
         <v>43466</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="11">
         <v>0.5</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <f ca="1">RAND()</f>
-        <v>0.56222894255831035</v>
-      </c>
-      <c r="F3">
+        <v>0.46792583943074939</v>
+      </c>
+      <c r="F3" s="6">
         <f t="shared" ref="F3:M3" ca="1" si="0">RAND()</f>
-        <v>4.3481525292366041E-2</v>
-      </c>
-      <c r="G3">
+        <v>0.80990911712536395</v>
+      </c>
+      <c r="G3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.232271235474097</v>
-      </c>
-      <c r="H3">
+        <v>0.30959338009821957</v>
+      </c>
+      <c r="H3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66559552775058339</v>
-      </c>
-      <c r="I3">
+        <v>0.47575324959325127</v>
+      </c>
+      <c r="I3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61092280968986845</v>
-      </c>
-      <c r="J3">
+        <v>5.9832010004269964E-2</v>
+      </c>
+      <c r="J3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9584750867766566</v>
-      </c>
-      <c r="K3">
+        <v>0.78086905051595235</v>
+      </c>
+      <c r="K3" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20615868547093186</v>
-      </c>
-      <c r="L3">
+        <v>0.84374409642712511</v>
+      </c>
+      <c r="L3" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10354615542380996</v>
-      </c>
-      <c r="M3">
+        <v>0.42253372655772048</v>
+      </c>
+      <c r="M3" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2013959136509218</v>
+        <v>0.40877013090322656</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="10">
         <v>43467</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="11">
         <v>0.54166666666666696</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <f t="shared" ref="E4:M12" ca="1" si="1">RAND()</f>
-        <v>0.79931569531382962</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.760905202812168</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.66972324459161514</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.56657172208945894</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.85657123076873198</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.28215631538789465</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.44219415098567483</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.86791059638368195</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.69553093875991223</v>
+        <v>0.8220109617164153</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.51144521323175862</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27706309602424883</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7911837130685337E-2</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.80230388903269467</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.21183236077648571</v>
+      </c>
+      <c r="K4" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.46953711639055729</v>
+      </c>
+      <c r="L4" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.12417793955978662</v>
+      </c>
+      <c r="M4" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27786063832811136</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="10">
         <v>43468</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="11">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.51442614611340021</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.44427341276190269</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.20364537456946885</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.47689132085553287</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.45747073950533901</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2540078119998832</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.6730976702185133</v>
-      </c>
-      <c r="L5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.14916108296118658</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.40819976512579736</v>
+      <c r="E5" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89145946941267196</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.63802404261803514</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.51878440349505006</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.79460160147736048</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.74910159659015807</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.35976184393795385</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.28113163212187586</v>
+      </c>
+      <c r="L5" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.12140875324983069</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.35442690864759496</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="10">
         <v>43469</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="11">
         <v>0.625</v>
       </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.5986238591731895</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.5967913805406263</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.17242096063493029</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.63510497049541537</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.86080782673575407</v>
-      </c>
-      <c r="J6">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.251964755785163E-2</v>
-      </c>
-      <c r="K6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2631505643575347</v>
-      </c>
-      <c r="L6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.93632094690693946</v>
-      </c>
-      <c r="M6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.70594844098613818</v>
+      <c r="E6" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.24784122468510039</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.13100717987316257</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.93491158102230798</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.95175210963001178</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.35097085146045071</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.86348756143430994</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.48064870604310195</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.13585489249507354</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.75659439859315514</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="10">
         <v>43470</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="11">
         <v>0.66666666666666696</v>
       </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.8358489194510178</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.19871248245504913</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.90333083937688374</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.70232773771510992</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.57194151939181292</v>
-      </c>
-      <c r="J7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.64414662930111288</v>
-      </c>
-      <c r="K7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.48305651880871014</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.86070654519222944</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.38334763650091008</v>
+      <c r="E7" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.28621849432719793</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.35622787358870267</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.47361200149447147</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.36442576446670227</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.0322907433790096E-2</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.3509311606299477E-2</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.7693328279183285E-2</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.7336538304839229E-2</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.42061385019395814</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="10">
         <v>43471</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="11">
         <v>0.70833333333333304</v>
       </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.47057884756655732</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.33741285186914016</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.84135440087767066</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.59046740359909367</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.42533569554267225</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.98212287600302972</v>
-      </c>
-      <c r="K8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.66000750050615131</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.4378146351712036E-2</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.37318530075779199</v>
+      <c r="E8" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.41610702941036759</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.98275070558251409</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.6438802124139078</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.66712598948511381</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.48439839529431661</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.76581380249550834</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.92732629217471818</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.58717436280147584</v>
+      </c>
+      <c r="M8" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.8914424957539282E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="10">
         <v>43472</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="11">
         <v>0.75</v>
       </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.55586292099117407</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.52101646001499713</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.51279006692719697</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.97026915363310395</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.32784646077921342</v>
-      </c>
-      <c r="J9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.11955162385049689</v>
-      </c>
-      <c r="K9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.45293116044390547</v>
-      </c>
-      <c r="L9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.51465690696893873</v>
-      </c>
-      <c r="M9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.48523433452975961</v>
+      <c r="E9" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.40172096020729153</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.58259127642391806</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.4056863176634828E-2</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.60817428307488697</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89755756957355315</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.39977760782294347</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.6889868674310375E-2</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.20703248997548407</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.84192964166021833</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="10">
         <v>43473</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="11">
         <v>0.79166666666666696</v>
       </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.10946319297132978</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.47282694118748447</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.63468079292708013</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.5673195791712842E-2</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.46193337733470463</v>
-      </c>
-      <c r="J10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.2904456751783107E-2</v>
-      </c>
-      <c r="K10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.49909759418474342</v>
-      </c>
-      <c r="L10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.31895311461046749</v>
-      </c>
-      <c r="M10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.6643330270079556</v>
+      <c r="E10" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.64322554367565932</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.87577472222789055</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.67631562921908694</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.60264223572633346</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.77431958660654809</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.52336917422510709</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.65947156551424646</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.85467659365712767</v>
+      </c>
+      <c r="M10" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.5527761530846681</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="10">
         <v>43474</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="11">
         <v>0.83333333333333304</v>
       </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.95336942878261999</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.71635681659315287</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.90306170544823439</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.39352063503836621</v>
-      </c>
-      <c r="I11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.7158006529505867</v>
-      </c>
-      <c r="J11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.68626597054711369</v>
-      </c>
-      <c r="K11">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.0392189553840088E-2</v>
-      </c>
-      <c r="L11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.17056106805521276</v>
-      </c>
-      <c r="M11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.22729845541233296</v>
+      <c r="E11" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.65714077121945891</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.39550327037245914</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37078396972358241</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8707810617363666</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.30478655295533708</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.5161361937661022</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89893453103911602</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.52567646074063645</v>
+      </c>
+      <c r="M11" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.72793586580393144</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="10">
         <v>43475</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="11">
         <v>0.875</v>
       </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.47375673563591891</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.28450413039023226</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.38193126366001906</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.44063697976330118</v>
-      </c>
-      <c r="I12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.11153375170960977</v>
-      </c>
-      <c r="J12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.51553239864046341</v>
-      </c>
-      <c r="K12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.70234954090327772</v>
-      </c>
-      <c r="L12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.72136139912309472</v>
-      </c>
-      <c r="M12">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.9721663748801843E-3</v>
+      <c r="E12" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.74970819523582821</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.47975261891030752</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.88050305106750071</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8208024445697446</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.10507689028267675</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.9057831059448813E-2</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.42362786314138057</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.5255816317251414E-2</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.55113018587355245</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
